--- a/config/BgConfig.xlsx
+++ b/config/BgConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16695" windowHeight="7545"/>
+    <workbookView windowWidth="15495" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>编号</t>
   </si>
@@ -24,7 +24,7 @@
     <t>类型</t>
   </si>
   <si>
-    <t>图片</t>
+    <t>图片对应bgImgConfig的id</t>
   </si>
   <si>
     <t>层</t>
@@ -133,6 +133,9 @@
   <si>
     <t>别墅背景</t>
   </si>
+  <si>
+    <t>loading 背景不能配置loading以外的资源</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +147,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +169,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +200,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,114 +260,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,67 +329,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,115 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,11 +523,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,60 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -599,17 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +790,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,12 +1152,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -1154,7 +1167,7 @@
     <col min="3" max="3" width="12.25" style="3" customWidth="1"/>
     <col min="4" max="5" width="22.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1261,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -1281,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -1377,6 +1390,27 @@
       </c>
       <c r="G10" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
